--- a/excel/practice_datasets/Copy of class_10_12.xlsx
+++ b/excel/practice_datasets/Copy of class_10_12.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\practice_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051FF41-B817-4DAD-A364-8D8CB21DA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B20D0-A51D-44B9-87D9-326639FC44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E09A9CBD-452E-480D-9544-F7260C364327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E09A9CBD-452E-480D-9544-F7260C364327}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet3!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet5!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="101">
   <si>
     <t>Quantity</t>
   </si>
@@ -198,6 +240,150 @@
   </si>
   <si>
     <t>teenager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color scale </t>
+  </si>
+  <si>
+    <t>top 20</t>
+  </si>
+  <si>
+    <t>icon set</t>
+  </si>
+  <si>
+    <t>custom formating</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>counta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumif </t>
+  </si>
+  <si>
+    <t>avgif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countif </t>
+  </si>
+  <si>
+    <t>sumifs</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>iferror</t>
+  </si>
+  <si>
+    <t>loss/profit</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>customer segment</t>
+  </si>
+  <si>
+    <t>Electronics total sales</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>table format</t>
+  </si>
+  <si>
+    <t>Date Functions  (Today, date, datediff, edate,day,month, year,now, weeknum,)</t>
+  </si>
+  <si>
+    <t>Text Functions (char,concatenate,find, len, lower,upper, mid, left, right,proper, replace,substitute, text,trim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vloopup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hloop </t>
+  </si>
+  <si>
+    <t>match ,index , xlookup</t>
+  </si>
+  <si>
+    <t>today()</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datediff</t>
+  </si>
+  <si>
+    <t>order date</t>
+  </si>
+  <si>
+    <t>shipping date</t>
+  </si>
+  <si>
+    <t>edate</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>week days</t>
+  </si>
+  <si>
+    <t>weeknum</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -277,23 +463,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -313,11 +560,94 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>2</v>
+    <v>8</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B12B5D35-54C9-4EC2-B3B0-2B9ACED4B4D2}" name="Table2" displayName="Table2" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{B12B5D35-54C9-4EC2-B3B0-2B9ACED4B4D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition descending="1" ref="B1:B11"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E3748D99-78C1-45DC-A9B4-19FCE91C245D}" name="Product Name"/>
+    <tableColumn id="2" xr3:uid="{6C9693F3-CF05-4B6D-BAB8-0CDB3B0B0DDE}" name="unit price"/>
+    <tableColumn id="3" xr3:uid="{E090D02C-8E10-4967-9530-665BBDEA1004}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{148CBB41-A77F-401D-9A9E-46ABAA750C26}" name="age group"/>
+    <tableColumn id="5" xr3:uid="{881EAAC8-5F0A-4976-8FF2-9C14680168F2}" name="Discount (%)"/>
+    <tableColumn id="6" xr3:uid="{FB8A4EA9-5367-4433-AE00-6B00031DB742}" name="Profit ($)"/>
+    <tableColumn id="7" xr3:uid="{85466EB7-113E-40DF-80E3-3A94CE849B44}" name="sales Amount">
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3202367-46EB-4E48-A057-88B5BFAFCB61}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0">
   <autoFilter ref="A1:I11" xr:uid="{A3202367-46EB-4E48-A057-88B5BFAFCB61}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-    <sortCondition sortBy="fontColor" ref="C1:C11" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="C1:C11" dxfId="6"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E978CDD5-C146-4E64-B430-28B89047B9D1}" name="Region"/>
@@ -633,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D084C-1E7F-44EE-83BD-92DF49D3B3B1}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,10 +976,12 @@
     <col min="3" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -687,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -797,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -844,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -867,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H4:H11" si="4">D5*E5</f>
+        <f t="shared" ref="H5:H11" si="4">D5*E5</f>
         <v>700</v>
       </c>
       <c r="I5">
@@ -875,7 +1207,7 @@
         <v>70</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J3:J11" si="5">H5*B17</f>
+        <f t="shared" ref="J5:J11" si="5">H5*B17</f>
         <v>0</v>
       </c>
       <c r="K5">
@@ -899,7 +1231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -954,7 +1286,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1341,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1396,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1205,12 +1537,156 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="6">
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
+      </c>
+      <c r="I13" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45585</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13">
+        <v>2024</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>23</v>
+      </c>
+      <c r="P13" s="6">
+        <f>DATE(M13,N13,O13)</f>
+        <v>45649</v>
+      </c>
+      <c r="Q13">
+        <f ca="1">DATEDIF(I13,P13,"d")</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
         <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="7">
+        <f ca="1">NOW()</f>
+        <v>45585.505790162038</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14">
+        <v>2023</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" ref="P14:P15" si="7">DATE(M14,N14,O14)</f>
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15">
+        <v>2020</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="7"/>
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CHAR(65)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1219,25 +1695,739 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05FB788-1DCF-46ED-BA8E-A0AA9103D966}">
+  <dimension ref="B5:V13"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="4.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6">
+        <f ca="1">WEEKDAY(J7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45585</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>2024</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6">
+        <f>DATE(F7,G7,H7)</f>
+        <v>45578</v>
+      </c>
+      <c r="J7" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45585</v>
+      </c>
+      <c r="K7">
+        <f ca="1">DATEDIF(I7,J7,"d")</f>
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f ca="1">DATEDIF(I7,J7,"m")</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f ca="1">DATEDIF(I7,J7,"md")</f>
+        <v>7</v>
+      </c>
+      <c r="N7" s="6">
+        <f ca="1">EDATE(J7,1)</f>
+        <v>45616</v>
+      </c>
+      <c r="O7">
+        <f ca="1">DAY(J7)</f>
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <f ca="1">MONTH(J7)</f>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f ca="1">YEAR(J7)</f>
+        <v>2024</v>
+      </c>
+      <c r="R7">
+        <f ca="1">WEEKNUM(J7)</f>
+        <v>43</v>
+      </c>
+      <c r="T7" t="str">
+        <f ca="1">TEXT(J7,"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="U7" t="str">
+        <f ca="1">TEXT(N7,"ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="V7" t="str">
+        <f ca="1">TEXT(N7,"dddd d mmm yyyy")</f>
+        <v>Wednesday 20 Nov 2024</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B8" s="7">
+        <f ca="1">NOW()</f>
+        <v>45585.505790162038</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I9" si="0">DATE(F8,G8,H8)</f>
+        <v>45211</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" ref="J8:J9" ca="1" si="1">TODAY()</f>
+        <v>45585</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K9" ca="1" si="2">DATEDIF(I8,J8,"d")</f>
+        <v>374</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L9" ca="1" si="3">DATEDIF(I8,J8,"m")</f>
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M9" ca="1" si="4">DATEDIF(I8,J8,"md")</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="6">
+        <f ca="1">EOMONTH(J8,2)</f>
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>2020</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6">
+        <f>DATE(F9,G9,H9)</f>
+        <v>44064</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>45585</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1521</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <f ca="1">K9/365</f>
+        <v>4.1671232876712327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="G13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18A4E4F-FF5C-4530-A48F-415C5CECB78B}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>11200</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <f>IFERROR(D2*E2, "value not found")</f>
+        <v>11200</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(G2&gt;0,"profit","lose")</f>
+        <v>profit</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(H2&gt;=1000,"premium",IF(AND(H2&gt;500, H2&lt;1000),"Medium","low"))</f>
+        <v>premium</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>900</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">IFERROR(D3*E3, "value not found")</f>
+        <v>900</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="1">IF(G3&gt;0,"profit","lose")</f>
+        <v>profit</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="2">IF(H3&gt;=1000,"premium",IF(AND(H3&gt;500, H3&lt;1000),"Medium","low"))</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>profit</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>premium</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>-100</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>value not found</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>lose</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>premium</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>profit</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>lose</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>premium</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-30</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>lose</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>profit</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>profit</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>profit</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <f>SUMIF(B2:B11,"Electronics",H2:H11)</f>
+        <v>13400</v>
+      </c>
+      <c r="F15" t="str">
+        <f>REPLACE(C5, 8,4," chair")</f>
+        <v>Dining  chaire</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGEIF(B2:B11,"Electronics",H2:H11)</f>
+        <v>3350</v>
+      </c>
+      <c r="F16" t="str">
+        <f>SUBSTITUTE(C5,"Table", "chair")</f>
+        <v>Dining chair</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(B2:B11,"Electronics")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <f>SUMIF(B2:B11,B19,H2:H11)</f>
+        <v>2000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>AVERAGEIF(B2:B11,B19,H2:H11)</f>
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>COUNTIF(B2:B11,B19)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J11" xr:uid="{D18A4E4F-FF5C-4530-A48F-415C5CECB78B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A03EB1-2F22-49D9-A0DC-0F7C171C4A0A}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showFormulas="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.90625" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" customWidth="1"/>
     <col min="8" max="8" width="16.54296875" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
     <col min="12" max="12" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +2455,17 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1292,11 +2491,27 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <f>D2*E2</f>
+        <f t="shared" ref="I2:I11" si="0">D2*E2</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(C2,"- ", D2)</f>
+        <v>Headphones- 100</v>
+      </c>
+      <c r="N2" t="str">
+        <f>LEFT(F2,3)</f>
+        <v>tee</v>
+      </c>
+      <c r="O2" t="str">
+        <f>RIGHT(F2,3)</f>
+        <v>ger</v>
+      </c>
+      <c r="P2" t="str">
+        <f>MID(F2,3,4)</f>
+        <v>enag</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1322,8 +2537,12 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>700</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE(C2,"-", F2)</f>
+        <v>Headphones-teenager</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
@@ -1333,7 +2552,7 @@
         <v>18650</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +2578,12 @@
         <v>90</v>
       </c>
       <c r="I4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
+      </c>
+      <c r="J4" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="J4" ca="1">CONCATENATE(E3:G3)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
@@ -1370,7 +2593,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1396,8 +2619,12 @@
         <v>200</v>
       </c>
       <c r="I5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>11200</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(C5:H5)</f>
+        <v>Laptop112001adult0200</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1406,8 +2633,15 @@
         <f>MAX(I2:I11)</f>
         <v>11200</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5">
+        <f>FIND(N5,F5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +2667,7 @@
         <v>120</v>
       </c>
       <c r="I6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="L6" t="s">
@@ -1443,8 +2677,15 @@
         <f>COUNT(I2:I11)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <f>SEARCH(N6,F6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +2711,7 @@
         <v>80</v>
       </c>
       <c r="I7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="L7" t="s">
@@ -1480,8 +2721,12 @@
         <f>AVERAGE(I2:I11)</f>
         <v>1865</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <f>SEARCH("a?u",F6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1507,11 +2752,11 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1537,11 +2782,11 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1567,11 +2812,11 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1597,11 +2842,11 @@
         <v>150</v>
       </c>
       <c r="I11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L12" s="3">
         <v>2</v>
       </c>
@@ -1609,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L13" s="3">
         <v>4</v>
       </c>
@@ -1617,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1646,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1814,12 +3059,413 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D99CB-6684-40DD-A1C7-7E273F0FB453}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G11" si="0">B2*C2</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>900</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>700</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>-90</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-80</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>-70</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="D2:D12" customList="Teenager,Adult,Senior"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="3" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="top10" dxfId="2" priority="9" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10853992-7EF3-44FB-94E3-B76B643EBC79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="top10" dxfId="0" priority="10" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10853992-7EF3-44FB-94E3-B76B643EBC79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94A22B-85F9-4939-B412-29A4412C78ED}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1890,7 +3536,7 @@
         <v>200</v>
       </c>
       <c r="I2">
-        <f>D2*E2</f>
+        <f t="shared" ref="I2:I11" si="0">D2*E2</f>
         <v>11200</v>
       </c>
     </row>
@@ -1920,7 +3566,7 @@
         <v>150</v>
       </c>
       <c r="I3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
@@ -1950,7 +3596,7 @@
         <v>90</v>
       </c>
       <c r="I4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1980,7 +3626,7 @@
         <v>120</v>
       </c>
       <c r="I5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
@@ -2010,7 +3656,7 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
@@ -2040,7 +3686,7 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -2070,7 +3716,7 @@
         <v>80</v>
       </c>
       <c r="I8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -2100,7 +3746,7 @@
         <v>50</v>
       </c>
       <c r="I9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
@@ -2130,7 +3776,7 @@
         <v>70</v>
       </c>
       <c r="I10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -2160,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
